--- a/data/GIMMICK/GameItemTbl.xlsx
+++ b/data/GIMMICK/GameItemTbl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okuda\OneDrive\ドキュメント\GitHub\ChristmasHackathon\data\GIMMICK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCADCCD-BDE4-46BC-A7D5-97B6EA6E7F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B4B728-C1CE-4202-9DA7-6BD8CFC7509A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,11 +48,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テクスチャ</t>
+    <t>プラス？(1)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プラス？(1)</t>
+    <t>Tex</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -394,13 +394,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -408,7 +408,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -425,7 +425,7 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>3000</v>
       </c>
       <c r="B4">
-        <v>-200</v>
+        <v>-20</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -459,7 +459,7 @@
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>5000</v>
       </c>
       <c r="B6">
-        <v>-300</v>
+        <v>-15</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>6000</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0</v>
